--- a/word counts.xlsx
+++ b/word counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurka\Desktop\deep-fiction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{669F215A-DC57-4E30-99D8-542F5C9301C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE6D5B4-1FFC-4701-92A0-4745246EFF25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{528B8027-8BB7-4F62-AC04-B1EA881BB4A8}"/>
   </bookViews>
@@ -354,24 +354,6 @@
     <t>strength</t>
   </si>
   <si>
-    <t xml:space="preserve"> ('whispered', 4152),</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ('shoulders', 3639),</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ('attention', 2801),</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ('surprised', 2766),</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ('sometimes', 2730),</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ('Something', 2660),</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ('important', 2643),</t>
   </si>
   <si>
@@ -424,6 +406,24 @@
   </si>
   <si>
     <t xml:space="preserve"> ('different', ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ('whispered', ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ('shoulders', ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ('attention', ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ('surprised', ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ('sometimes', ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ('Something', ),</t>
   </si>
 </sst>
 </file>
@@ -786,7 +786,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -890,7 +890,7 @@
         <v>8886</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J2">
         <v>18434</v>
@@ -922,7 +922,7 @@
         <v>6520</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J3">
         <v>4303</v>
@@ -954,7 +954,7 @@
         <v>5821</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J4">
         <v>4259</v>
@@ -986,7 +986,10 @@
         <v>5694</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
+      </c>
+      <c r="J5">
+        <v>4152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1015,7 +1018,10 @@
         <v>5456</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
+      </c>
+      <c r="J6">
+        <v>3639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1044,7 +1050,10 @@
         <v>5290</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
+      </c>
+      <c r="J7">
+        <v>2801</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1073,7 +1082,10 @@
         <v>5110</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
+      </c>
+      <c r="J8">
+        <v>2766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1102,7 +1114,10 @@
         <v>4822</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
+      </c>
+      <c r="J9">
+        <v>2730</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1131,7 +1146,10 @@
         <v>4753</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
+      </c>
+      <c r="J10">
+        <v>2660</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1160,7 +1178,7 @@
         <v>4713</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1189,7 +1207,7 @@
         <v>4376</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1218,7 +1236,7 @@
         <v>4357</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1247,7 +1265,7 @@
         <v>4272</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1276,7 +1294,7 @@
         <v>4227</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1305,7 +1323,7 @@
         <v>4213</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1334,7 +1352,7 @@
         <v>4180</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1363,7 +1381,7 @@
         <v>4040</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1392,7 +1410,7 @@
         <v>3877</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1421,7 +1439,7 @@
         <v>3593</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1450,7 +1468,7 @@
         <v>3587</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1479,7 +1497,7 @@
         <v>3583</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1508,7 +1526,7 @@
         <v>3499</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1537,7 +1555,7 @@
         <v>3498</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1566,7 +1584,7 @@
         <v>3333</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:9">

--- a/word counts.xlsx
+++ b/word counts.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurka\Desktop\deep-fiction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B94BE2F-C1FE-4FB3-BFB6-AF877859AC52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ABFD3E-EC26-493B-A265-FDA7CB5FAA05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{528B8027-8BB7-4F62-AC04-B1EA881BB4A8}"/>
+    <workbookView xWindow="12480" yWindow="2316" windowWidth="8880" windowHeight="8964" activeTab="1" xr2:uid="{528B8027-8BB7-4F62-AC04-B1EA881BB4A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="131">
   <si>
     <t>five letters</t>
   </si>
@@ -253,6 +254,177 @@
   </si>
   <si>
     <t>something</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Rand</t>
+  </si>
+  <si>
+    <t>Egwene</t>
+  </si>
+  <si>
+    <t>Perrin</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Elayne</t>
+  </si>
+  <si>
+    <t>Eragon</t>
+  </si>
+  <si>
+    <t>Nynaeve</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>Hermione</t>
+  </si>
+  <si>
+    <t>Elend</t>
+  </si>
+  <si>
+    <t>Garion</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Moiraine</t>
+  </si>
+  <si>
+    <t>Dumbledore</t>
+  </si>
+  <si>
+    <t>Susannah</t>
+  </si>
+  <si>
+    <t>WoT</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Dark Tower</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Mem, sor, thron</t>
+  </si>
+  <si>
+    <t>Mistborn</t>
+  </si>
+  <si>
+    <t>Belgariad</t>
+  </si>
+  <si>
+    <t>Pendragon</t>
+  </si>
+  <si>
+    <t>Series count</t>
+  </si>
+  <si>
+    <t>Name count total</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Inhtnce</t>
+  </si>
+  <si>
+    <t>Kelsier</t>
+  </si>
+  <si>
+    <t>Name %</t>
+  </si>
+  <si>
+    <t>total size %</t>
+  </si>
+  <si>
+    <t>carefully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Robert', ' Jordan'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Steven', ' Erikson'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['George', ' R. R. Martin'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Brandon', 'Sanderson'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Stephen', 'King'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['J. K.', 'Rowling'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Tad', 'Williams'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Stephen', 'R. Lawhead'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Patrick', 'Rothfuss'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['J. R. R.', 'Tolkien'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Christopher', 'Paolini'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Joe', 'Abercrombie'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['David', 'Eddings'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Scott', 'Bakker'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Gene', 'Wolfe'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Guy', 'Gavriel Kay'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Garth', 'Nix'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['C. S.', 'Lewis'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Ursula', 'K Le Guin'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ['Fred', 'Saberhagen']</t>
   </si>
 </sst>
 </file>
@@ -273,12 +445,78 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -293,12 +531,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,29 +885,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9970911-9ED4-45A8-A6CF-977AD842040F}">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.6640625" hidden="1" customWidth="1"/>
     <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,74 +920,74 @@
       <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -723,45 +998,45 @@
         <f>(B2/(MIN(B2:B11)))*10</f>
         <v>29.604527067733883</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>16147</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2" s="2">
-        <v>35.020879120879123</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2">
+        <v>17.743956043956043</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>27717</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="K2">
-        <f>(I2/MIN(I2:I11))*15</f>
+      <c r="L2">
+        <f>(J2/MIN(J2:J11))*15</f>
         <v>46.005864778134338</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>8886</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>18434</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -769,49 +1044,49 @@
         <v>62660</v>
       </c>
       <c r="C3">
-        <f>(B3/(MIN(B3:B12)))*5</f>
+        <f t="shared" ref="C3:C11" si="0">(B3/(MIN(B3:B12)))*5</f>
         <v>13.482227386177811</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>16183</v>
       </c>
-      <c r="F3">
-        <f>(F2+3)</f>
+      <c r="G3">
+        <f>(G2+3)</f>
         <v>6</v>
       </c>
-      <c r="G3" s="2">
-        <v>28.008791208791209</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2">
+        <v>17.783516483516483</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>25427</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K11" si="0">(I3/MIN(I3:I12))*15</f>
+      <c r="L3">
+        <f>(J3/MIN(J3:J12))*15</f>
         <v>42.204824609936928</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>6520</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>4303</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -819,49 +1094,49 @@
         <v>53606</v>
       </c>
       <c r="C4">
-        <f>(B4/(MIN(B4:B13)))*5</f>
+        <f t="shared" si="0"/>
         <v>11.53412513985713</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>17080</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F11" si="1">(F3+3)</f>
+      <c r="G4">
+        <f t="shared" ref="G4:G11" si="1">(G3+3)</f>
         <v>9</v>
       </c>
-      <c r="G4" s="2">
-        <v>23.303296703296702</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2">
+        <v>18.76923076923077</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>18451</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>8</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
+      <c r="L4">
+        <f t="shared" ref="L3:L11" si="2">(J4/MIN(J4:J13))*15</f>
         <v>30.625760761314595</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>5821</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>4259</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -869,49 +1144,49 @@
         <v>44864</v>
       </c>
       <c r="C5">
-        <f>(B5/(MIN(B5:B14)))*5</f>
+        <f t="shared" si="0"/>
         <v>9.6531543162062139</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>18041</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G5" s="2">
-        <v>22.561538461538461</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2">
+        <v>19.825274725274728</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>14941</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>11</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
+      <c r="L5">
+        <f t="shared" si="2"/>
         <v>24.799712293902843</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>5694</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4152</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -919,49 +1194,49 @@
         <v>33778</v>
       </c>
       <c r="C6">
-        <f>(B6/(MIN(B6:B15)))*5</f>
+        <f t="shared" si="0"/>
         <v>7.2678371632670622</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>18565</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G6" s="2">
-        <v>20.424175824175826</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2">
+        <v>20.401098901098898</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>14934</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>14</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
+      <c r="L6">
+        <f t="shared" si="2"/>
         <v>24.788093393825385</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>5456</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>3639</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -969,49 +1244,49 @@
         <v>26010</v>
       </c>
       <c r="C7">
-        <f>(B7/(MIN(B7:B16)))*5</f>
+        <f t="shared" si="0"/>
         <v>5.5964368706429122</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18586</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G7" s="2">
-        <v>20.401098901098898</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2">
+        <v>20.424175824175826</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>14600</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>17</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
+      <c r="L7">
+        <f t="shared" si="2"/>
         <v>24.233705875843754</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>5290</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2801</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,49 +1294,49 @@
         <v>25240</v>
       </c>
       <c r="C8">
-        <f>(B8/(MIN(B8:B17)))*5</f>
+        <f t="shared" si="0"/>
         <v>5.4307599621309919</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>20531</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G8" s="2">
-        <v>19.825274725274728</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2">
+        <v>22.561538461538461</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>10743</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>20</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
+      <c r="L8">
+        <f t="shared" si="2"/>
         <v>17.831691933163661</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>5110</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2766</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1069,49 +1344,49 @@
         <v>25223</v>
       </c>
       <c r="C9">
-        <f>(B9/(MIN(B9:B18)))*5</f>
+        <f t="shared" si="0"/>
         <v>5.4271021602547549</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>21206</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G9" s="2">
-        <v>18.76923076923077</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2">
+        <v>23.303296703296702</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>10628</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>23</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
+      <c r="L9">
+        <f t="shared" si="2"/>
         <v>17.640810003319686</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>4822</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2730</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1119,49 +1394,49 @@
         <v>23288</v>
       </c>
       <c r="C10">
-        <f>(B10/(MIN(B10:B19)))*5</f>
+        <f t="shared" si="0"/>
         <v>5.0107582408124616</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>25488</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G10" s="2">
-        <v>17.783516483516483</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2">
+        <v>28.008791208791209</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>10478</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>26</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
+      <c r="L10">
+        <f t="shared" si="2"/>
         <v>17.391833573088416</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>4753</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>2660</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1169,556 +1444,1636 @@
         <v>23238</v>
       </c>
       <c r="C11">
-        <f>(B11/(MIN(B11:B20)))*5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>31869</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G11" s="2">
-        <v>17.743956043956043</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2">
+        <v>35.020879120879123</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>9037</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>29</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
+      <c r="L11">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4713</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2643</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="D12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="D13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="H14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="D15" s="1" t="s">
+    <row r="12" spans="1:26">
+      <c r="E12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="E13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="I14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>16147</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="G15">
-        <f>(E15/2643)*5</f>
+      <c r="H15">
+        <f>(F15/2643)*5</f>
         <v>30.546727203934921</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>27717</v>
       </c>
-      <c r="K15">
-        <f>(I15/2643)*7</f>
+      <c r="L15">
+        <f>(J15/2643)*7</f>
         <v>73.408626560726447</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>8886</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15">
-        <f>(M15/2643)*8.5</f>
+      <c r="O15" s="1"/>
+      <c r="P15">
+        <f>(N15/2643)*8.5</f>
         <v>28.577752553916003</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>18434</v>
       </c>
-      <c r="S15">
-        <f>(Q15/2643)*10</f>
+      <c r="T15">
+        <f>(R15/2643)*10</f>
         <v>69.74650018917896</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="D16" s="1" t="s">
+    <row r="16" spans="1:26">
+      <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>16183</v>
       </c>
-      <c r="F16">
-        <f>(F15+3)</f>
+      <c r="G16">
+        <f>(G15+3)</f>
         <v>6</v>
       </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G24" si="2">(E16/2643)*5</f>
+      <c r="H16">
+        <f t="shared" ref="H16:H24" si="3">(F16/2643)*5</f>
         <v>30.614831630722662</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>25427</v>
       </c>
-      <c r="K16">
-        <f t="shared" ref="K16:K24" si="3">(I16/2643)*7</f>
+      <c r="L16">
+        <f t="shared" ref="L16:L24" si="4">(J16/2643)*7</f>
         <v>67.34354899735149</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>6520</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16">
-        <f t="shared" ref="O16:O24" si="4">(M16/2643)*8.5</f>
+      <c r="O16" s="1"/>
+      <c r="P16">
+        <f t="shared" ref="P16:P24" si="5">(N16/2643)*8.5</f>
         <v>20.968596292092318</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>4303</v>
       </c>
-      <c r="S16">
-        <f t="shared" ref="S16:S24" si="5">(Q16/2643)*10</f>
+      <c r="T16">
+        <f t="shared" ref="T16:T24" si="6">(R16/2643)*10</f>
         <v>16.280741581536134</v>
       </c>
     </row>
-    <row r="17" spans="4:19">
-      <c r="D17" s="1" t="s">
+    <row r="17" spans="4:20">
+      <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>17080</v>
       </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F24" si="6">(F16+3)</f>
+      <c r="G17">
+        <f t="shared" ref="G17:G24" si="7">(G16+3)</f>
         <v>9</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
+      <c r="H17">
+        <f t="shared" si="3"/>
         <v>32.311766931517212</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>18451</v>
       </c>
-      <c r="K17">
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>48.867574725690503</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17">
+        <v>5821</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>18.720582671206962</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17">
+        <v>4259</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="6"/>
+        <v>16.114264093832766</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20">
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>18041</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="3"/>
-        <v>48.867574725690503</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17">
-        <v>5821</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17">
+        <v>34.129776768823305</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18">
+        <v>14941</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="4"/>
-        <v>18.720582671206962</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17">
-        <v>4259</v>
-      </c>
-      <c r="S17">
+        <v>39.57132046916383</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18">
+        <v>5694</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18">
         <f t="shared" si="5"/>
-        <v>16.114264093832766</v>
-      </c>
-    </row>
-    <row r="18" spans="4:19">
-      <c r="D18" s="1" t="s">
+        <v>18.312145289443816</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18">
+        <v>4152</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="6"/>
+        <v>15.709421112372304</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20">
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>18565</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>35.121074536511536</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19">
+        <v>14934</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>39.552780930760505</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19">
+        <v>5456</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>17.546727203934921</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R19">
+        <v>3639</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="6"/>
+        <v>13.768444948921681</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20">
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>18586</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>35.160802118804391</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20">
+        <v>14600</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>38.668180098373057</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20">
+        <v>5290</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>17.012864169504351</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R20">
+        <v>2801</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="6"/>
+        <v>10.597805524025727</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20">
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>20531</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>38.840332954975409</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21">
+        <v>10743</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>28.452894438138479</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21">
+        <v>5110</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>16.433976541808551</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21">
+        <v>2766</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="6"/>
+        <v>10.465380249716231</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20">
+      <c r="E22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>21206</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>40.117290957245551</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22">
+        <v>10628</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>28.148316307226633</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22">
+        <v>4822</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>15.50775633749527</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R22">
+        <v>2730</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="6"/>
+        <v>10.329171396140747</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20">
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>25488</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="E18">
-        <v>18041</v>
-      </c>
-      <c r="F18">
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>48.21793416572077</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23">
+        <v>10478</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>27.751040484298144</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23">
+        <v>4753</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>15.285849413545213</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R23">
+        <v>2660</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>34.129776768823305</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18">
-        <v>14941</v>
-      </c>
-      <c r="K18">
+        <v>10.064320847521754</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20">
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <v>31869</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="3"/>
-        <v>39.57132046916383</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18">
-        <v>5694</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18">
+        <v>60.289443813847896</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24">
+        <v>9037</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="4"/>
-        <v>18.312145289443816</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q18">
-        <v>4152</v>
-      </c>
-      <c r="S18">
+        <v>23.934544078698448</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24">
+        <v>4713</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24">
         <f t="shared" si="5"/>
-        <v>15.709421112372304</v>
-      </c>
-    </row>
-    <row r="19" spans="4:19">
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>18565</v>
-      </c>
-      <c r="F19">
+        <v>15.157207718501702</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24">
+        <v>2643</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>35.121074536511536</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19">
-        <v>14934</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>39.552780930760505</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19">
-        <v>5456</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19">
-        <f t="shared" si="4"/>
-        <v>17.546727203934921</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q19">
-        <v>3639</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="5"/>
-        <v>13.768444948921681</v>
-      </c>
-    </row>
-    <row r="20" spans="4:19">
-      <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>18586</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>35.160802118804391</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20">
-        <v>14600</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>38.668180098373057</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20">
-        <v>5290</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20">
-        <f t="shared" si="4"/>
-        <v>17.012864169504351</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20">
-        <v>2801</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="5"/>
-        <v>10.597805524025727</v>
-      </c>
-    </row>
-    <row r="21" spans="4:19">
-      <c r="D21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>20531</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>38.840332954975409</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21">
-        <v>10743</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="3"/>
-        <v>28.452894438138479</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M21">
-        <v>5110</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21">
-        <f t="shared" si="4"/>
-        <v>16.433976541808551</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q21">
-        <v>2766</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="5"/>
-        <v>10.465380249716231</v>
-      </c>
-    </row>
-    <row r="22" spans="4:19">
-      <c r="D22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22">
-        <v>21206</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>40.117290957245551</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22">
-        <v>10628</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="3"/>
-        <v>28.148316307226633</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22">
-        <v>4822</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22">
-        <f t="shared" si="4"/>
-        <v>15.50775633749527</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q22">
-        <v>2730</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="5"/>
-        <v>10.329171396140747</v>
-      </c>
-    </row>
-    <row r="23" spans="4:19">
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>25488</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>48.21793416572077</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23">
-        <v>10478</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="3"/>
-        <v>27.751040484298144</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23">
-        <v>4753</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23">
-        <f t="shared" si="4"/>
-        <v>15.285849413545213</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q23">
-        <v>2660</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="5"/>
-        <v>10.064320847521754</v>
-      </c>
-    </row>
-    <row r="24" spans="4:19">
-      <c r="D24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24">
-        <v>31869</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>60.289443813847896</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24">
-        <v>9037</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
-        <v>23.934544078698448</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24">
-        <v>4713</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24">
-        <f t="shared" si="4"/>
-        <v>15.157207718501702</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q24">
-        <v>2643</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="4:19">
-      <c r="L25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="4:19">
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="4:19">
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="4:19">
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="4:19">
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="4:19">
-      <c r="N30" s="1"/>
+    <row r="25" spans="4:20">
+      <c r="M25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="4:20">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="4:20">
+      <c r="E27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="4:20">
+      <c r="D28" s="12"/>
+      <c r="E28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="1">
+        <v>16787</v>
+      </c>
+      <c r="G28" t="s">
+        <v>95</v>
+      </c>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="4:20">
+      <c r="D29" s="12"/>
+      <c r="E29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="1">
+        <v>12579</v>
+      </c>
+      <c r="G29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="4:20">
+      <c r="D30" s="12"/>
+      <c r="E30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7878</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20">
+      <c r="D31" s="12"/>
+      <c r="E31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="1">
+        <v>7134</v>
+      </c>
+      <c r="G31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20">
+      <c r="D32" s="12"/>
+      <c r="E32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6973</v>
+      </c>
+      <c r="G32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8">
+      <c r="D33" s="12"/>
+      <c r="E33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6866</v>
+      </c>
+      <c r="G33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8">
+      <c r="D34" s="12"/>
+      <c r="E34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6668</v>
+      </c>
+      <c r="G34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8">
+      <c r="D35" s="12"/>
+      <c r="E35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="1">
+        <v>6319</v>
+      </c>
+      <c r="G35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8">
+      <c r="D36" s="12"/>
+      <c r="E36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="1">
+        <v>6033</v>
+      </c>
+      <c r="G36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8">
+      <c r="D37" s="12"/>
+      <c r="E37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5686</v>
+      </c>
+      <c r="G37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8">
+      <c r="D38" s="12"/>
+      <c r="E38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4985</v>
+      </c>
+      <c r="G38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8">
+      <c r="D39" s="12"/>
+      <c r="E39" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4457</v>
+      </c>
+      <c r="G39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8">
+      <c r="D40" s="12"/>
+      <c r="E40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4045</v>
+      </c>
+      <c r="G40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8">
+      <c r="D41" s="12"/>
+      <c r="E41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3889</v>
+      </c>
+      <c r="G41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8">
+      <c r="D42" s="12"/>
+      <c r="E42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3798</v>
+      </c>
+      <c r="G42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8">
+      <c r="E43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3598</v>
+      </c>
+      <c r="G43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8">
+      <c r="E44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2890</v>
+      </c>
+      <c r="G44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8">
+      <c r="E45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2733</v>
+      </c>
+      <c r="G45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8">
+      <c r="E46" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3399</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8">
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8">
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <f>12579+7878+7134+6866+6319+3598</f>
+        <v>44374</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0.13730000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8">
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <f>2890+4985+16787</f>
+        <v>24662</v>
+      </c>
+      <c r="H50" s="11">
+        <v>6.8599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8">
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <f>6973+5686+3889+2733</f>
+        <v>19281</v>
+      </c>
+      <c r="H51" s="11">
+        <v>7.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8">
+      <c r="D52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <f>4457+3399</f>
+        <v>7856</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8">
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>6668</v>
+      </c>
+      <c r="H53" s="11">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8">
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6033</v>
+      </c>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="4:8">
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8">
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3798</v>
+      </c>
+      <c r="H56" s="11">
+        <v>5.8799999999999998E-2</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E11">
-    <sortCondition ref="E11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H11">
+    <sortCondition ref="H11"/>
   </sortState>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EC9610-E97A-4183-B2FB-9D4DB3A1EDAA}">
+  <dimension ref="A1:E60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="15">
+        <v>16147</v>
+      </c>
+      <c r="C2" s="15">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16">
+        <v>17.743956043956043</v>
+      </c>
+      <c r="E2" s="15">
+        <f>(B2/(MIN(B2:B11)))*18</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="15">
+        <v>16183</v>
+      </c>
+      <c r="C3" s="15">
+        <f>(C2+3)</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="16">
+        <v>17.783516483516483</v>
+      </c>
+      <c r="E3" s="15">
+        <f>(B3/(MIN(B2:B11)))*18</f>
+        <v>18.040131293738774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="15">
+        <v>17080</v>
+      </c>
+      <c r="C4" s="15">
+        <f t="shared" ref="C4:C11" si="0">(C3+3)</f>
+        <v>9</v>
+      </c>
+      <c r="D4" s="16">
+        <v>18.76923076923077</v>
+      </c>
+      <c r="E4" s="15">
+        <f>(B4/(MIN(B2:B11)))*18</f>
+        <v>19.04006936272992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="15">
+        <v>18041</v>
+      </c>
+      <c r="C5" s="15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="16">
+        <v>19.825274725274728</v>
+      </c>
+      <c r="E5" s="15">
+        <f>(B5/(MIN(B2:B11))*18)</f>
+        <v>20.111351953923329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15">
+        <v>18565</v>
+      </c>
+      <c r="C6" s="15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="16">
+        <v>20.401098901098898</v>
+      </c>
+      <c r="E6" s="15">
+        <f>(B6/(MIN(B2:B11)))*18</f>
+        <v>20.695485229454388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15">
+        <v>18586</v>
+      </c>
+      <c r="C7" s="15">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="16">
+        <v>20.424175824175826</v>
+      </c>
+      <c r="E7" s="15">
+        <f>(B7/(MIN(B2:B11)))*18</f>
+        <v>20.718895150802005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="15">
+        <v>20531</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D8" s="16">
+        <v>22.561538461538461</v>
+      </c>
+      <c r="E8" s="15">
+        <f>(B8/(MIN(B2:B11)))*18</f>
+        <v>22.887099770855265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="15">
+        <v>21206</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D9" s="16">
+        <v>23.303296703296702</v>
+      </c>
+      <c r="E9" s="15">
+        <f>(B9/(MIN(B2:B11)))*18</f>
+        <v>23.6395615284573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="15">
+        <v>25488</v>
+      </c>
+      <c r="C10" s="15">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D10" s="16">
+        <v>28.008791208791209</v>
+      </c>
+      <c r="E10" s="15">
+        <f>(B10/(MIN(B2:B11)))*18</f>
+        <v>28.412955967052703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15">
+        <v>31869</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="16">
+        <v>35.020879120879123</v>
+      </c>
+      <c r="E11" s="15">
+        <f>(B11/(MIN(B2:B11)))*18</f>
+        <v>35.526227782250572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="15">
+        <v>8886</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15">
+        <f>(B14/(MIN(B14:B23)))*20</f>
+        <v>37.708465945257799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="15">
+        <v>6520</v>
+      </c>
+      <c r="C15" s="15">
+        <f>(C14+3)</f>
+        <v>6</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15">
+        <f>(B15/(MIN(B14:B23)))*20</f>
+        <v>27.668151920220666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="15">
+        <v>5821</v>
+      </c>
+      <c r="C16" s="15">
+        <f t="shared" ref="C16:C23" si="1">(C15+3)</f>
+        <v>9</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15">
+        <f>(B16/(MIN(B14:B23)))*20</f>
+        <v>24.701888393804371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="15">
+        <v>5694</v>
+      </c>
+      <c r="C17" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15">
+        <f>(B17/(MIN(B14:B23)))*20</f>
+        <v>24.162953532781664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="15">
+        <v>5456</v>
+      </c>
+      <c r="C18" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
+        <f>(B18/(MIN(B14:B23)))*20</f>
+        <v>23.152981116061959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="15">
+        <v>5290</v>
+      </c>
+      <c r="C19" s="15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15">
+        <f>(B19/(MIN(B14:B23)))*20</f>
+        <v>22.448546573307873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="15">
+        <v>5110</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15">
+        <f>(B20/(MIN(B14:B23)))*20</f>
+        <v>21.684701888393803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="15">
+        <v>4822</v>
+      </c>
+      <c r="C21" s="15">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15">
+        <f>(B21/(MIN(B14:B23)))*20</f>
+        <v>20.462550392531295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="15">
+        <v>4753</v>
+      </c>
+      <c r="C22" s="15">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15">
+        <f>(B22/(MIN(B14:B23)))*20</f>
+        <v>20.169743263314238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="15">
+        <v>4713</v>
+      </c>
+      <c r="C23" s="15">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15">
+        <f>(B23/(MIN(B14:B23)))*20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="15">
+        <v>18434</v>
+      </c>
+      <c r="C26" s="15">
+        <v>3</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15">
+        <f>(B26/(MIN(B26:B34)))*15</f>
+        <v>104.61975028376844</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="15">
+        <v>4303</v>
+      </c>
+      <c r="C27" s="15">
+        <f>(C26+3)</f>
+        <v>6</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15">
+        <f>(B27/(MIN(B26:B34)))*20</f>
+        <v>32.561483163072268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="15">
+        <v>4259</v>
+      </c>
+      <c r="C28" s="15">
+        <f t="shared" ref="C28:C33" si="2">(C27+3)</f>
+        <v>9</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15">
+        <f>(B28/(MIN(B26:B34)))*20</f>
+        <v>32.228528187665532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="15">
+        <v>4152</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15">
+        <f>(B29/(MIN(B26:B34)))*20</f>
+        <v>31.418842224744608</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="15">
+        <v>3639</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15">
+        <f>(B30/(MIN(B26:B34)))*20</f>
+        <v>27.536889897843363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="15">
+        <v>2801</v>
+      </c>
+      <c r="C31" s="15">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15">
+        <f>(B31/(MIN(B26:B34)))*20</f>
+        <v>21.195611048051454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="15">
+        <v>2766</v>
+      </c>
+      <c r="C32" s="15">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15">
+        <f>(B32/(MIN(B26:B34)))*20</f>
+        <v>20.930760499432463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="15">
+        <v>2730</v>
+      </c>
+      <c r="C33" s="15">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15">
+        <f>(B33/(MIN(B26:B34)))*20</f>
+        <v>20.658342792281495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="15">
+        <v>2643</v>
+      </c>
+      <c r="C34" s="15">
+        <v>27</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15">
+        <f>(B34/(MIN(B26:B35)))*20</f>
+        <v>21.797938144329898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="15">
+        <v>2425</v>
+      </c>
+      <c r="C35" s="15">
+        <v>30</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15">
+        <f>(B35/(MIN(B26:B35)))*20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="18"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="18"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="18"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="18"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="18"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="18"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="18"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="18"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="18"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="18"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="18"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="18"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="18"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="18"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="18"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="18"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="18"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="18"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="18"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/word counts.xlsx
+++ b/word counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurka\Desktop\deep-fiction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ABFD3E-EC26-493B-A265-FDA7CB5FAA05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB716A4-A147-4F1C-99A5-985E2A8B51AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="2316" windowWidth="8880" windowHeight="8964" activeTab="1" xr2:uid="{528B8027-8BB7-4F62-AC04-B1EA881BB4A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{528B8027-8BB7-4F62-AC04-B1EA881BB4A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="111">
   <si>
     <t>five letters</t>
   </si>
@@ -365,66 +365,6 @@
   </si>
   <si>
     <t>carefully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Robert', ' Jordan'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Steven', ' Erikson'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['George', ' R. R. Martin'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Brandon', 'Sanderson'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Stephen', 'King'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['J. K.', 'Rowling'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Tad', 'Williams'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Stephen', 'R. Lawhead'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Patrick', 'Rothfuss'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['J. R. R.', 'Tolkien'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Christopher', 'Paolini'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Joe', 'Abercrombie'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['David', 'Eddings'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Scott', 'Bakker'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Gene', 'Wolfe'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Guy', 'Gavriel Kay'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Garth', 'Nix'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['C. S.', 'Lewis'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Ursula', 'K Le Guin'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ['Fred', 'Saberhagen']</t>
   </si>
 </sst>
 </file>
@@ -445,7 +385,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +458,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -531,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -571,6 +517,11 @@
     <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,7 +839,7 @@
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P11"/>
+      <selection activeCell="I1" sqref="I1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1120,7 +1071,7 @@
         <v>8</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L3:L11" si="2">(J4/MIN(J4:J13))*15</f>
+        <f t="shared" ref="L4:L11" si="2">(J4/MIN(J4:J13))*15</f>
         <v>30.625760761314595</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -2363,16 +2314,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EC9610-E97A-4183-B2FB-9D4DB3A1EDAA}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2579,193 +2531,200 @@
         <v>35.526227782250572</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20"/>
+    </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B14" s="15">
-        <v>8886</v>
+        <v>27717</v>
       </c>
       <c r="C14" s="15">
         <v>3</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="15">
-        <f>(B14/(MIN(B14:B23)))*20</f>
-        <v>37.708465945257799</v>
+        <f>(B14/(MIN(B14:B23)))*18</f>
+        <v>55.207037733761204</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B15" s="15">
-        <v>6520</v>
+        <v>25427</v>
       </c>
       <c r="C15" s="15">
         <f>(C14+3)</f>
         <v>6</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="15">
-        <f>(B15/(MIN(B14:B23)))*20</f>
-        <v>27.668151920220666</v>
+        <f>(B15/(MIN(B14:B23)))*18</f>
+        <v>50.645789531924315</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B16" s="15">
-        <v>5821</v>
+        <v>18451</v>
       </c>
       <c r="C16" s="15">
-        <f t="shared" ref="C16:C23" si="1">(C15+3)</f>
+        <f>(C15+3)</f>
         <v>9</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="15">
-        <f>(B16/(MIN(B14:B23)))*20</f>
-        <v>24.701888393804371</v>
+        <f>(B16/(MIN(B14:B23)))*18</f>
+        <v>36.750912913577515</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B17" s="15">
-        <v>5694</v>
+        <v>14941</v>
       </c>
       <c r="C17" s="15">
-        <f t="shared" si="1"/>
+        <f>(C16+3)</f>
         <v>12</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="15">
-        <f>(B17/(MIN(B14:B23)))*20</f>
-        <v>24.162953532781664</v>
+        <f>(B17/(MIN(B14:B23)))*18</f>
+        <v>29.759654752683414</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B18" s="15">
-        <v>5456</v>
+        <v>14934</v>
       </c>
       <c r="C18" s="15">
-        <f t="shared" si="1"/>
+        <f>(C17+3)</f>
         <v>15</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="15">
-        <f>(B18/(MIN(B14:B23)))*20</f>
-        <v>23.152981116061959</v>
+        <f>(B18/(MIN(B14:B23)))*18</f>
+        <v>29.745712072590461</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B19" s="15">
-        <v>5290</v>
+        <v>14600</v>
       </c>
       <c r="C19" s="15">
-        <f t="shared" si="1"/>
+        <f>(C18+3)</f>
         <v>18</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="15">
-        <f>(B19/(MIN(B14:B23)))*20</f>
-        <v>22.448546573307873</v>
+        <f>(B19/(MIN(B14:B23)))*18</f>
+        <v>29.080447051012502</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B20" s="15">
-        <v>5110</v>
+        <v>10743</v>
       </c>
       <c r="C20" s="15">
-        <f t="shared" si="1"/>
+        <f>(C19+3)</f>
         <v>21</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="15">
-        <f>(B20/(MIN(B14:B23)))*20</f>
-        <v>21.684701888393803</v>
+        <f>(B20/(MIN(B14:B23)))*18</f>
+        <v>21.398030319796391</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="14" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B21" s="15">
-        <v>4822</v>
+        <v>10628</v>
       </c>
       <c r="C21" s="15">
-        <f t="shared" si="1"/>
+        <f>(C20+3)</f>
         <v>24</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="15">
-        <f>(B21/(MIN(B14:B23)))*20</f>
-        <v>20.462550392531295</v>
+        <f>(B21/(MIN(B14:B23)))*18</f>
+        <v>21.168972003983626</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B22" s="15">
-        <v>4753</v>
+        <v>10478</v>
       </c>
       <c r="C22" s="15">
-        <f t="shared" si="1"/>
+        <f>(C21+3)</f>
         <v>27</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="15">
-        <f>(B22/(MIN(B14:B23)))*20</f>
-        <v>20.169743263314238</v>
+        <f>(B22/(MIN(B14:B23)))*18</f>
+        <v>20.870200287706098</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B23" s="15">
-        <v>4713</v>
+        <v>9037</v>
       </c>
       <c r="C23" s="15">
-        <f t="shared" si="1"/>
+        <f>(C22+3)</f>
         <v>30</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="15">
-        <f>(B23/(MIN(B14:B23)))*20</f>
-        <v>20</v>
+        <f>(B23/(MIN(B14:B23)))*18</f>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>11</v>
@@ -2780,26 +2739,26 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B26" s="15">
-        <v>18434</v>
+        <v>8886</v>
       </c>
       <c r="C26" s="15">
         <v>3</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15">
-        <f>(B26/(MIN(B26:B34)))*15</f>
-        <v>104.61975028376844</v>
+        <f>(B26/(MIN(B26:B35)))*20</f>
+        <v>37.708465945257799</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B27" s="15">
-        <v>4303</v>
+        <v>6520</v>
       </c>
       <c r="C27" s="15">
         <f>(C26+3)</f>
@@ -2807,136 +2766,138 @@
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <f>(B27/(MIN(B26:B34)))*20</f>
-        <v>32.561483163072268</v>
+        <f>(B27/(MIN(B26:B35)))*20</f>
+        <v>27.668151920220666</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B28" s="15">
-        <v>4259</v>
+        <v>5821</v>
       </c>
       <c r="C28" s="15">
-        <f t="shared" ref="C28:C33" si="2">(C27+3)</f>
+        <f t="shared" ref="C28:C34" si="1">(C27+3)</f>
         <v>9</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15">
-        <f>(B28/(MIN(B26:B34)))*20</f>
-        <v>32.228528187665532</v>
+        <f>(B28/(MIN(B26:B35)))*20</f>
+        <v>24.701888393804371</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B29" s="15">
-        <v>4152</v>
+        <v>5694</v>
       </c>
       <c r="C29" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
-        <f>(B29/(MIN(B26:B34)))*20</f>
-        <v>31.418842224744608</v>
+        <f>(B29/(MIN(B26:B35)))*20</f>
+        <v>24.162953532781664</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B30" s="15">
-        <v>3639</v>
+        <v>5456</v>
       </c>
       <c r="C30" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
-        <f>(B30/(MIN(B26:B34)))*20</f>
-        <v>27.536889897843363</v>
+        <f>(B30/(MIN(B26:B35)))*20</f>
+        <v>23.152981116061959</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B31" s="15">
-        <v>2801</v>
+        <v>5290</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <f>(B31/(MIN(B26:B34)))*20</f>
-        <v>21.195611048051454</v>
+        <f>(B31/(MIN(B26:B35)))*20</f>
+        <v>22.448546573307873</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="14" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B32" s="15">
-        <v>2766</v>
+        <v>5110</v>
       </c>
       <c r="C32" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15">
-        <f>(B32/(MIN(B26:B34)))*20</f>
-        <v>20.930760499432463</v>
+        <f>(B32/(MIN(B26:B35)))*20</f>
+        <v>21.684701888393803</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="14" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B33" s="15">
-        <v>2730</v>
+        <v>4822</v>
       </c>
       <c r="C33" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
-        <f>(B33/(MIN(B26:B34)))*20</f>
-        <v>20.658342792281495</v>
+        <f>(B33/(MIN(B26:B35)))*20</f>
+        <v>20.462550392531295</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="14" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B34" s="15">
-        <v>2643</v>
+        <v>4753</v>
       </c>
       <c r="C34" s="15">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
         <f>(B34/(MIN(B26:B35)))*20</f>
-        <v>21.797938144329898</v>
+        <v>20.169743263314238</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="14" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B35" s="15">
-        <v>2425</v>
+        <v>4713</v>
       </c>
       <c r="C35" s="15">
+        <f>(C34+3)</f>
         <v>30</v>
       </c>
       <c r="D35" s="15"/>
@@ -2946,132 +2907,246 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="B37" s="18"/>
+      <c r="A37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="B38" s="18"/>
+      <c r="A38" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="15">
+        <v>18434</v>
+      </c>
+      <c r="C38" s="15">
+        <v>3</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15">
+        <f>(B38/(MIN(B38:B47)))*15</f>
+        <v>114.02474226804124</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="B39" s="18"/>
+      <c r="A39" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="15">
+        <v>4303</v>
+      </c>
+      <c r="C39" s="15">
+        <f>(C38+3)</f>
+        <v>6</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15">
+        <f>(B39/(MIN(B38:B47)))*20</f>
+        <v>35.488659793814435</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="B40" s="18"/>
+      <c r="A40" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="15">
+        <v>4259</v>
+      </c>
+      <c r="C40" s="15">
+        <f t="shared" ref="C40:C45" si="2">(C39+3)</f>
+        <v>9</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15">
+        <f>(B40/(MIN(B38:B47)))*20</f>
+        <v>35.125773195876292</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="18"/>
+      <c r="A41" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="15">
+        <v>4152</v>
+      </c>
+      <c r="C41" s="15">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15">
+        <f>(B41/(MIN(B38:B47)))*20</f>
+        <v>34.243298969072164</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="18"/>
+      <c r="A42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="15">
+        <v>3639</v>
+      </c>
+      <c r="C42" s="15">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15">
+        <f>(B42/(MIN(B38:B47)))*20</f>
+        <v>30.012371134020619</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="18"/>
+      <c r="A43" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="15">
+        <v>2801</v>
+      </c>
+      <c r="C43" s="15">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15">
+        <f>(B43/(MIN(B38:B47)))*20</f>
+        <v>23.101030927835051</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="18"/>
+      <c r="A44" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="15">
+        <v>2766</v>
+      </c>
+      <c r="C44" s="15">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15">
+        <f>(B44/(MIN(B38:B47)))*20</f>
+        <v>22.812371134020619</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="18"/>
+      <c r="A45" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="15">
+        <v>2730</v>
+      </c>
+      <c r="C45" s="15">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15">
+        <f>(B45/(MIN(B38:B47)))*20</f>
+        <v>22.515463917525771</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" s="18"/>
+      <c r="A46" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="15">
+        <v>2643</v>
+      </c>
+      <c r="C46" s="15">
+        <v>27</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15">
+        <f>(B46/(MIN(B38:B47)))*20</f>
+        <v>21.797938144329898</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="18"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="18"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>119</v>
-      </c>
+      <c r="A47" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="15">
+        <v>2425</v>
+      </c>
+      <c r="C47" s="15">
+        <v>30</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15">
+        <f>(B47/(MIN(B38:B47)))*20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
       <c r="B49" s="18"/>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>120</v>
-      </c>
+    <row r="50" spans="2:2">
       <c r="B50" s="18"/>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>121</v>
-      </c>
+    <row r="51" spans="2:2">
       <c r="B51" s="18"/>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>122</v>
-      </c>
+    <row r="52" spans="2:2">
       <c r="B52" s="18"/>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>123</v>
-      </c>
+    <row r="53" spans="2:2">
       <c r="B53" s="18"/>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>124</v>
-      </c>
+    <row r="54" spans="2:2">
       <c r="B54" s="18"/>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>125</v>
-      </c>
+    <row r="55" spans="2:2">
       <c r="B55" s="18"/>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>126</v>
-      </c>
+    <row r="56" spans="2:2">
       <c r="B56" s="18"/>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>130</v>
-      </c>
+    <row r="57" spans="2:2">
+      <c r="B57" s="18"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="18"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="18"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="18"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="18"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="18"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="18"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="18"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="18"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="18"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="18"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/word counts.xlsx
+++ b/word counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurka\Desktop\deep-fiction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB716A4-A147-4F1C-99A5-985E2A8B51AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BCEBCE-247A-466C-B0AC-561C2B7C20C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{528B8027-8BB7-4F62-AC04-B1EA881BB4A8}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="8880" windowHeight="8964" activeTab="1" xr2:uid="{528B8027-8BB7-4F62-AC04-B1EA881BB4A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2316,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EC9610-E97A-4183-B2FB-9D4DB3A1EDAA}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2350,10 +2350,12 @@
         <v>16147</v>
       </c>
       <c r="C2" s="15">
-        <v>3</v>
+        <f>B2^0.75</f>
+        <v>1432.4150782908716</v>
       </c>
       <c r="D2" s="16">
-        <v>17.743956043956043</v>
+        <f>B2</f>
+        <v>16147</v>
       </c>
       <c r="E2" s="15">
         <f>(B2/(MIN(B2:B11)))*18</f>
@@ -2368,12 +2370,10 @@
         <v>16183</v>
       </c>
       <c r="C3" s="15">
-        <f>(C2+3)</f>
-        <v>6</v>
-      </c>
-      <c r="D3" s="16">
-        <v>17.783516483516483</v>
-      </c>
+        <f t="shared" ref="C3:C11" si="0">B3^0.75</f>
+        <v>1434.809605988796</v>
+      </c>
+      <c r="D3" s="16"/>
       <c r="E3" s="15">
         <f>(B3/(MIN(B2:B11)))*18</f>
         <v>18.040131293738774</v>
@@ -2387,12 +2387,10 @@
         <v>17080</v>
       </c>
       <c r="C4" s="15">
-        <f t="shared" ref="C4:C11" si="0">(C3+3)</f>
-        <v>9</v>
-      </c>
-      <c r="D4" s="16">
-        <v>18.76923076923077</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1494.0526417397589</v>
+      </c>
+      <c r="D4" s="16"/>
       <c r="E4" s="15">
         <f>(B4/(MIN(B2:B11)))*18</f>
         <v>19.04006936272992</v>
@@ -2407,11 +2405,9 @@
       </c>
       <c r="C5" s="15">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D5" s="16">
-        <v>19.825274725274728</v>
-      </c>
+        <v>1556.666053876811</v>
+      </c>
+      <c r="D5" s="16"/>
       <c r="E5" s="15">
         <f>(B5/(MIN(B2:B11))*18)</f>
         <v>20.111351953923329</v>
@@ -2426,11 +2422,9 @@
       </c>
       <c r="C6" s="15">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D6" s="16">
-        <v>20.401098901098898</v>
-      </c>
+        <v>1590.4543752042971</v>
+      </c>
+      <c r="D6" s="16"/>
       <c r="E6" s="15">
         <f>(B6/(MIN(B2:B11)))*18</f>
         <v>20.695485229454388</v>
@@ -2445,11 +2439,9 @@
       </c>
       <c r="C7" s="15">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D7" s="16">
-        <v>20.424175824175826</v>
-      </c>
+        <v>1591.8034792268741</v>
+      </c>
+      <c r="D7" s="16"/>
       <c r="E7" s="15">
         <f>(B7/(MIN(B2:B11)))*18</f>
         <v>20.718895150802005</v>
@@ -2464,11 +2456,9 @@
       </c>
       <c r="C8" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D8" s="16">
-        <v>22.561538461538461</v>
-      </c>
+        <v>1715.1716010651121</v>
+      </c>
+      <c r="D8" s="16"/>
       <c r="E8" s="15">
         <f>(B8/(MIN(B2:B11)))*18</f>
         <v>22.887099770855265</v>
@@ -2483,11 +2473,9 @@
       </c>
       <c r="C9" s="15">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D9" s="16">
-        <v>23.303296703296702</v>
-      </c>
+        <v>1757.292549790448</v>
+      </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="15">
         <f>(B9/(MIN(B2:B11)))*18</f>
         <v>23.6395615284573</v>
@@ -2502,11 +2490,9 @@
       </c>
       <c r="C10" s="15">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D10" s="16">
-        <v>28.008791208791209</v>
-      </c>
+        <v>2017.2132811065733</v>
+      </c>
+      <c r="D10" s="16"/>
       <c r="E10" s="15">
         <f>(B10/(MIN(B2:B11)))*18</f>
         <v>28.412955967052703</v>
@@ -2521,11 +2507,9 @@
       </c>
       <c r="C11" s="15">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D11" s="16">
-        <v>35.020879120879123</v>
-      </c>
+        <v>2385.2083836042857</v>
+      </c>
+      <c r="D11" s="16"/>
       <c r="E11" s="15">
         <f>(B11/(MIN(B2:B11)))*18</f>
         <v>35.526227782250572</v>
@@ -2561,9 +2545,13 @@
         <v>27717</v>
       </c>
       <c r="C14" s="15">
-        <v>3</v>
-      </c>
-      <c r="D14" s="16"/>
+        <f>B14^0.75</f>
+        <v>2148.1255781680129</v>
+      </c>
+      <c r="D14" s="16">
+        <f>B14^0.4</f>
+        <v>59.85473174438998</v>
+      </c>
       <c r="E14" s="15">
         <f>(B14/(MIN(B14:B23)))*18</f>
         <v>55.207037733761204</v>
@@ -2577,10 +2565,13 @@
         <v>25427</v>
       </c>
       <c r="C15" s="15">
-        <f>(C14+3)</f>
-        <v>6</v>
-      </c>
-      <c r="D15" s="16"/>
+        <f t="shared" ref="C15:C23" si="1">B15^0.75</f>
+        <v>2013.5913749567781</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" ref="D15:D23" si="2">B15^0.4</f>
+        <v>57.825320588766864</v>
+      </c>
       <c r="E15" s="15">
         <f>(B15/(MIN(B14:B23)))*18</f>
         <v>50.645789531924315</v>
@@ -2594,10 +2585,13 @@
         <v>18451</v>
       </c>
       <c r="C16" s="15">
-        <f>(C15+3)</f>
-        <v>9</v>
-      </c>
-      <c r="D16" s="16"/>
+        <f t="shared" si="1"/>
+        <v>1583.1239957457212</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="2"/>
+        <v>50.863701696144574</v>
+      </c>
       <c r="E16" s="15">
         <f>(B16/(MIN(B14:B23)))*18</f>
         <v>36.750912913577515</v>
@@ -2611,10 +2605,13 @@
         <v>14941</v>
       </c>
       <c r="C17" s="15">
-        <f>(C16+3)</f>
-        <v>12</v>
-      </c>
-      <c r="D17" s="16"/>
+        <f t="shared" si="1"/>
+        <v>1351.4025974206484</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="2"/>
+        <v>46.746797762995165</v>
+      </c>
       <c r="E17" s="15">
         <f>(B17/(MIN(B14:B23)))*18</f>
         <v>29.759654752683414</v>
@@ -2628,10 +2625,13 @@
         <v>14934</v>
       </c>
       <c r="C18" s="15">
-        <f>(C17+3)</f>
-        <v>15</v>
-      </c>
-      <c r="D18" s="16"/>
+        <f t="shared" si="1"/>
+        <v>1350.9277109191471</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="2"/>
+        <v>46.738036004381854</v>
+      </c>
       <c r="E18" s="15">
         <f>(B18/(MIN(B14:B23)))*18</f>
         <v>29.745712072590461</v>
@@ -2645,10 +2645,13 @@
         <v>14600</v>
       </c>
       <c r="C19" s="15">
-        <f>(C18+3)</f>
-        <v>18</v>
-      </c>
-      <c r="D19" s="16"/>
+        <f t="shared" si="1"/>
+        <v>1328.2035657777801</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="2"/>
+        <v>46.3170768284186</v>
+      </c>
       <c r="E19" s="15">
         <f>(B19/(MIN(B14:B23)))*18</f>
         <v>29.080447051012502</v>
@@ -2662,10 +2665,13 @@
         <v>10743</v>
       </c>
       <c r="C20" s="15">
-        <f>(C19+3)</f>
-        <v>21</v>
-      </c>
-      <c r="D20" s="16"/>
+        <f t="shared" si="1"/>
+        <v>1055.2228375152758</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="2"/>
+        <v>40.96851576194981</v>
+      </c>
       <c r="E20" s="15">
         <f>(B20/(MIN(B14:B23)))*18</f>
         <v>21.398030319796391</v>
@@ -2679,10 +2685,13 @@
         <v>10628</v>
       </c>
       <c r="C21" s="15">
-        <f>(C20+3)</f>
-        <v>24</v>
-      </c>
-      <c r="D21" s="16"/>
+        <f t="shared" si="1"/>
+        <v>1046.7396113305078</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="2"/>
+        <v>40.792527811062996</v>
+      </c>
       <c r="E21" s="15">
         <f>(B21/(MIN(B14:B23)))*18</f>
         <v>21.168972003983626</v>
@@ -2696,10 +2705,13 @@
         <v>10478</v>
       </c>
       <c r="C22" s="15">
-        <f>(C21+3)</f>
-        <v>27</v>
-      </c>
-      <c r="D22" s="16"/>
+        <f t="shared" si="1"/>
+        <v>1035.6399512140524</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="2"/>
+        <v>40.561252540707549</v>
+      </c>
       <c r="E22" s="15">
         <f>(B22/(MIN(B14:B23)))*18</f>
         <v>20.870200287706098</v>
@@ -2713,10 +2725,13 @@
         <v>9037</v>
       </c>
       <c r="C23" s="15">
-        <f>(C22+3)</f>
-        <v>30</v>
-      </c>
-      <c r="D23" s="16"/>
+        <f t="shared" si="1"/>
+        <v>926.86868988824335</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="2"/>
+        <v>38.230476664263158</v>
+      </c>
       <c r="E23" s="15">
         <f>(B23/(MIN(B14:B23)))*18</f>
         <v>18</v>
@@ -2745,9 +2760,13 @@
         <v>8886</v>
       </c>
       <c r="C26" s="15">
-        <v>3</v>
-      </c>
-      <c r="D26" s="15"/>
+        <f>B26^0.75</f>
+        <v>915.22891345178004</v>
+      </c>
+      <c r="D26" s="15">
+        <f>B26^0.4</f>
+        <v>37.973665768643578</v>
+      </c>
       <c r="E26" s="15">
         <f>(B26/(MIN(B26:B35)))*20</f>
         <v>37.708465945257799</v>
@@ -2761,10 +2780,13 @@
         <v>6520</v>
       </c>
       <c r="C27" s="15">
-        <f>(C26+3)</f>
-        <v>6</v>
-      </c>
-      <c r="D27" s="15"/>
+        <f t="shared" ref="C27:C35" si="3">B27^0.75</f>
+        <v>725.58065749570585</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" ref="D27:D35" si="4">B27^0.4</f>
+        <v>33.550503205145922</v>
+      </c>
       <c r="E27" s="15">
         <f>(B27/(MIN(B26:B35)))*20</f>
         <v>27.668151920220666</v>
@@ -2778,10 +2800,13 @@
         <v>5821</v>
       </c>
       <c r="C28" s="15">
-        <f t="shared" ref="C28:C34" si="1">(C27+3)</f>
-        <v>9</v>
-      </c>
-      <c r="D28" s="15"/>
+        <f t="shared" si="3"/>
+        <v>666.42027193054957</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="4"/>
+        <v>32.06262235001865</v>
+      </c>
       <c r="E28" s="15">
         <f>(B28/(MIN(B26:B35)))*20</f>
         <v>24.701888393804371</v>
@@ -2795,10 +2820,13 @@
         <v>5694</v>
       </c>
       <c r="C29" s="15">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D29" s="15"/>
+        <f t="shared" si="3"/>
+        <v>655.4855120858964</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" si="4"/>
+        <v>31.780958055166799</v>
+      </c>
       <c r="E29" s="15">
         <f>(B29/(MIN(B26:B35)))*20</f>
         <v>24.162953532781664</v>
@@ -2812,10 +2840,13 @@
         <v>5456</v>
       </c>
       <c r="C30" s="15">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D30" s="15"/>
+        <f t="shared" si="3"/>
+        <v>634.82755789474481</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="4"/>
+        <v>31.242785321294523</v>
+      </c>
       <c r="E30" s="15">
         <f>(B30/(MIN(B26:B35)))*20</f>
         <v>23.152981116061959</v>
@@ -2829,10 +2860,13 @@
         <v>5290</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D31" s="15"/>
+        <f t="shared" si="3"/>
+        <v>620.28567846814474</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" si="4"/>
+        <v>30.859029869611859</v>
+      </c>
       <c r="E31" s="15">
         <f>(B31/(MIN(B26:B35)))*20</f>
         <v>22.448546573307873</v>
@@ -2846,10 +2880,13 @@
         <v>5110</v>
       </c>
       <c r="C32" s="15">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D32" s="15"/>
+        <f t="shared" si="3"/>
+        <v>604.38778036416375</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" si="4"/>
+        <v>30.434653387900045</v>
+      </c>
       <c r="E32" s="15">
         <f>(B32/(MIN(B26:B35)))*20</f>
         <v>21.684701888393803</v>
@@ -2863,10 +2900,13 @@
         <v>4822</v>
       </c>
       <c r="C33" s="15">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D33" s="15"/>
+        <f t="shared" si="3"/>
+        <v>578.65592526847342</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="4"/>
+        <v>29.736570654228029</v>
+      </c>
       <c r="E33" s="15">
         <f>(B33/(MIN(B26:B35)))*20</f>
         <v>20.462550392531295</v>
@@ -2880,10 +2920,13 @@
         <v>4753</v>
       </c>
       <c r="C34" s="15">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="D34" s="15"/>
+        <f t="shared" si="3"/>
+        <v>572.43457960151079</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="4"/>
+        <v>29.565629190482145</v>
+      </c>
       <c r="E34" s="15">
         <f>(B34/(MIN(B26:B35)))*20</f>
         <v>20.169743263314238</v>
@@ -2897,10 +2940,13 @@
         <v>4713</v>
       </c>
       <c r="C35" s="15">
-        <f>(C34+3)</f>
-        <v>30</v>
-      </c>
-      <c r="D35" s="15"/>
+        <f t="shared" si="3"/>
+        <v>568.81767101559115</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="4"/>
+        <v>29.465850150576291</v>
+      </c>
       <c r="E35" s="15">
         <f>(B35/(MIN(B26:B35)))*20</f>
         <v>20</v>
@@ -2929,9 +2975,13 @@
         <v>18434</v>
       </c>
       <c r="C38" s="15">
-        <v>3</v>
-      </c>
-      <c r="D38" s="15"/>
+        <f>B38^0.75</f>
+        <v>1582.0299002211539</v>
+      </c>
+      <c r="D38" s="15">
+        <f>B38^0.4</f>
+        <v>50.844951014849471</v>
+      </c>
       <c r="E38" s="15">
         <f>(B38/(MIN(B38:B47)))*15</f>
         <v>114.02474226804124</v>
@@ -2945,10 +2995,13 @@
         <v>4303</v>
       </c>
       <c r="C39" s="15">
-        <f>(C38+3)</f>
-        <v>6</v>
-      </c>
-      <c r="D39" s="15"/>
+        <f t="shared" ref="C39:C47" si="5">B39^0.75</f>
+        <v>531.28616840725658</v>
+      </c>
+      <c r="D39" s="15">
+        <f t="shared" ref="D39:D47" si="6">B39^0.4</f>
+        <v>28.412440446234381</v>
+      </c>
       <c r="E39" s="15">
         <f>(B39/(MIN(B38:B47)))*20</f>
         <v>35.488659793814435</v>
@@ -2962,10 +3015,13 @@
         <v>4259</v>
       </c>
       <c r="C40" s="15">
-        <f t="shared" ref="C40:C45" si="2">(C39+3)</f>
-        <v>9</v>
-      </c>
-      <c r="D40" s="15"/>
+        <f t="shared" si="5"/>
+        <v>527.206468390449</v>
+      </c>
+      <c r="D40" s="15">
+        <f t="shared" si="6"/>
+        <v>28.295870293303818</v>
+      </c>
       <c r="E40" s="15">
         <f>(B40/(MIN(B38:B47)))*20</f>
         <v>35.125773195876292</v>
@@ -2979,10 +3035,13 @@
         <v>4152</v>
       </c>
       <c r="C41" s="15">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="D41" s="15"/>
+        <f t="shared" si="5"/>
+        <v>517.24107855340822</v>
+      </c>
+      <c r="D41" s="15">
+        <f t="shared" si="6"/>
+        <v>28.009344032143488</v>
+      </c>
       <c r="E41" s="15">
         <f>(B41/(MIN(B38:B47)))*20</f>
         <v>34.243298969072164</v>
@@ -2996,10 +3055,13 @@
         <v>3639</v>
       </c>
       <c r="C42" s="15">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="D42" s="15"/>
+        <f t="shared" si="5"/>
+        <v>468.52906970143437</v>
+      </c>
+      <c r="D42" s="15">
+        <f t="shared" si="6"/>
+        <v>26.570077565200602</v>
+      </c>
       <c r="E42" s="15">
         <f>(B42/(MIN(B38:B47)))*20</f>
         <v>30.012371134020619</v>
@@ -3013,10 +3075,13 @@
         <v>2801</v>
       </c>
       <c r="C43" s="15">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="D43" s="15"/>
+        <f t="shared" si="5"/>
+        <v>385.02136699845795</v>
+      </c>
+      <c r="D43" s="15">
+        <f t="shared" si="6"/>
+        <v>23.929038229165208</v>
+      </c>
       <c r="E43" s="15">
         <f>(B43/(MIN(B38:B47)))*20</f>
         <v>23.101030927835051</v>
@@ -3030,10 +3095,13 @@
         <v>2766</v>
       </c>
       <c r="C44" s="15">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="D44" s="15"/>
+        <f t="shared" si="5"/>
+        <v>381.40741487031829</v>
+      </c>
+      <c r="D44" s="15">
+        <f t="shared" si="6"/>
+        <v>23.808984391613176</v>
+      </c>
       <c r="E44" s="15">
         <f>(B44/(MIN(B38:B47)))*20</f>
         <v>22.812371134020619</v>
@@ -3047,10 +3115,13 @@
         <v>2730</v>
       </c>
       <c r="C45" s="15">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="D45" s="15"/>
+        <f t="shared" si="5"/>
+        <v>377.6782588600189</v>
+      </c>
+      <c r="D45" s="15">
+        <f t="shared" si="6"/>
+        <v>23.684545699906099</v>
+      </c>
       <c r="E45" s="15">
         <f>(B45/(MIN(B38:B47)))*20</f>
         <v>22.515463917525771</v>
@@ -3064,9 +3135,13 @@
         <v>2643</v>
       </c>
       <c r="C46" s="15">
-        <v>27</v>
-      </c>
-      <c r="D46" s="15"/>
+        <f t="shared" si="5"/>
+        <v>368.61488831914113</v>
+      </c>
+      <c r="D46" s="15">
+        <f t="shared" si="6"/>
+        <v>23.379696291045033</v>
+      </c>
       <c r="E46" s="15">
         <f>(B46/(MIN(B38:B47)))*20</f>
         <v>21.797938144329898</v>
@@ -3080,9 +3155,13 @@
         <v>2425</v>
       </c>
       <c r="C47" s="15">
-        <v>30</v>
-      </c>
-      <c r="D47" s="15"/>
+        <f t="shared" si="5"/>
+        <v>345.56822893139054</v>
+      </c>
+      <c r="D47" s="15">
+        <f t="shared" si="6"/>
+        <v>22.58835981927119</v>
+      </c>
       <c r="E47" s="15">
         <f>(B47/(MIN(B38:B47)))*20</f>
         <v>20</v>
